--- a/Dokumenter/Tidsfordeling.xlsx
+++ b/Dokumenter/Tidsfordeling.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fresta1\Documents\GitHub\Leaf-Leaves\Dokumenter\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="90" windowWidth="14115" windowHeight="4680"/>
   </bookViews>
@@ -451,64 +456,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -549,9 +496,31 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -559,13 +528,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -575,7 +570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -585,31 +580,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -617,7 +602,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -629,7 +614,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -644,7 +629,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -653,6 +638,43 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,6 +693,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -719,7 +744,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -754,7 +779,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -965,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,76 +1002,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="43" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44" t="s">
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44" t="s">
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="45"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="35"/>
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="5">
         <v>12</v>
       </c>
@@ -1119,575 +1144,575 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="13"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="69"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="10"/>
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="37"/>
+      <c r="B5" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="18"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="14"/>
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="18"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="14"/>
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="18"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="14"/>
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
-      <c r="B8" s="20" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="18"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="14"/>
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="18"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="14"/>
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
-      <c r="B10" s="14" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="18"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="14"/>
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="18"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="14"/>
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="24"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="19"/>
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
-      <c r="B13" s="20" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="24"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="19"/>
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="18"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="14"/>
       <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="14" t="s">
+      <c r="A15" s="25"/>
+      <c r="B15" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="18"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="14"/>
       <c r="Z15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="36"/>
-      <c r="B16" s="20" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="18"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="75"/>
+      <c r="W16" s="73"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="14"/>
       <c r="Z16" s="3"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="18"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="14"/>
       <c r="Z17" s="3"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="18"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="14"/>
       <c r="Z18" s="3"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
-      <c r="B19" s="31" t="s">
+      <c r="A19" s="22"/>
+      <c r="B19" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="59"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="59"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="59"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="59"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="5"/>
       <c r="X19" s="6"/>
       <c r="Y19" s="8"/>
       <c r="Z19" s="3"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="60"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="60"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="60"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
+      <c r="V20" s="61"/>
+      <c r="W20" s="50"/>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="62"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="62"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="62"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="62"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
+      <c r="V21" s="63"/>
+      <c r="W21" s="3"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="65"/>
+      <c r="U22" s="65"/>
+      <c r="V22" s="66"/>
+      <c r="W22" s="51"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
